--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3496,7 +3496,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>159</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>172</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>196</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>263</v>
       </c>
@@ -9116,7 +9116,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>403</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
         <v>482</v>
       </c>
@@ -11476,7 +11476,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
         <v>494</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>497</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
         <v>500</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>507</v>
       </c>
@@ -12305,7 +12305,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
         <v>512</v>
       </c>
@@ -12424,7 +12424,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
         <v>514</v>
       </c>
@@ -13134,7 +13134,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>525</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
         <v>527</v>
       </c>
@@ -13487,7 +13487,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
         <v>530</v>
       </c>
@@ -13725,7 +13725,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>534</v>
       </c>
@@ -13961,7 +13961,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
         <v>539</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
         <v>541</v>
       </c>
@@ -15607,7 +15607,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
         <v>568</v>
       </c>
@@ -15843,7 +15843,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" hidden="true">
+    <row r="117">
       <c r="A117" t="s" s="2">
         <v>571</v>
       </c>
@@ -16081,7 +16081,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="119" hidden="true">
+    <row r="119">
       <c r="A119" t="s" s="2">
         <v>574</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="121" hidden="true">
+    <row r="121">
       <c r="A121" t="s" s="2">
         <v>580</v>
       </c>
@@ -16440,12 +16440,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO121">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-medication-reconciliation-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
